--- a/LyThuyet/Tuan5.xlsx
+++ b/LyThuyet/Tuan5.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hungl\LapTrinhPhanTichDuLieu\LyThuyet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B2961A-8E0C-4183-974C-4BBDD81467CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F58A4-20A4-4296-9024-23FA8EB2AEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E27E5021-0421-4283-AE3E-72A0E098DE18}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
+    <sheet name="model1 " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +83,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -433,18 +434,18 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="16.796875" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" customWidth="1"/>
-    <col min="6" max="6" width="22.8984375" customWidth="1"/>
-    <col min="7" max="7" width="17.59765625" customWidth="1"/>
+    <col min="3" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8.5</v>
       </c>
@@ -495,7 +496,7 @@
         <v>1.2333150000000031E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5.8</v>
       </c>
@@ -523,7 +524,7 @@
         <v>0.69654631891891894</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6.8</v>
       </c>
@@ -551,7 +552,7 @@
         <v>0.22350159666666672</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -579,7 +580,7 @@
         <v>9.1464412727272695E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8.6</v>
       </c>
@@ -607,7 +608,7 @@
         <v>2.0834725925925928E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5.3</v>
       </c>
@@ -635,7 +636,7 @@
         <v>2.9247663114753932E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -663,7 +664,7 @@
         <v>0.188182231818182</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.4</v>
       </c>
@@ -691,7 +692,7 @@
         <v>9.2012775757575729E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7.1</v>
       </c>
@@ -719,7 +720,7 @@
         <v>6.4692869480519402E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7.5</v>
       </c>
@@ -747,7 +748,7 @@
         <v>8.4981247101449386E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7.3</v>
       </c>
@@ -775,7 +776,7 @@
         <v>7.0364841139240422E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7.2</v>
       </c>
@@ -803,7 +804,7 @@
         <v>4.3027456578947326E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6.1</v>
       </c>
@@ -831,7 +832,7 @@
         <v>4.5499903676470603E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6.8</v>
       </c>
@@ -859,7 +860,7 @@
         <v>6.8201916000000057E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.0999999999999996</v>
       </c>
@@ -887,7 +888,7 @@
         <v>0.17862143139534875</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.2</v>
       </c>
@@ -915,7 +916,7 @@
         <v>4.0907732786885101E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8.6</v>
       </c>
@@ -943,7 +944,7 @@
         <v>0.12034454468085114</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8.1999999999999993</v>
       </c>
@@ -971,7 +972,7 @@
         <v>7.1598188372093072E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.7</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>0.27143724249999995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6.5</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>1.8100528260869594E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E22" s="1">
         <f>AVERAGE(E2:E21)</f>
         <v>0.73485170675</v>
@@ -1041,7 +1042,7 @@
         <v>0.12159503884509851</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>4</v>
       </c>
@@ -1068,4 +1069,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7201E7-A10B-4D7B-A19F-B73EF45C0EF2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>